--- a/config/clientes.xlsx
+++ b/config/clientes.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Aguas Andinas</t>
   </si>
   <si>
-    <t xml:space="preserve">Estación Pudahuel</t>
+    <t xml:space="preserve">Estacion Pudahuel</t>
   </si>
   <si>
     <t xml:space="preserve">1504749-6-0</t>
@@ -157,7 +157,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
